--- a/biology/Zoologie/Échenilleur_à_épaulettes_jaunes/Échenilleur_à_épaulettes_jaunes.xlsx
+++ b/biology/Zoologie/Échenilleur_à_épaulettes_jaunes/Échenilleur_à_épaulettes_jaunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_%C3%A0_%C3%A9paulettes_jaunes</t>
+          <t>Échenilleur_à_épaulettes_jaunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campephaga flava
 L’Échenilleur à épaulettes jaunes (Campephaga flava) est une espèce d’oiseaux de la famille des Campephagidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_%C3%A0_%C3%A9paulettes_jaunes</t>
+          <t>Échenilleur_à_épaulettes_jaunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce africaine vit en Angola, au Botswana, au Burundi, en république démocratique du Congo, en Eswatini, en Éthiopie, au Kenya, au Malawi, au Mozambique, en Namibie, en Afrique du Sud, au Soudan, en Tanzanie, en Zambie et au Zimbabwe. Il se reproduit au Soudan du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce africaine vit en Angola, au Botswana, au Burundi, en république démocratique du Congo, en Eswatini, en Éthiopie, au Kenya, au Malawi, au Mozambique, en Namibie, en Afrique du Sud, au Soudan, en Tanzanie, en Zambie et au Zimbabwe. Il se reproduit au Soudan du Sud.
 </t>
         </is>
       </c>
